--- a/Requisitos - Sistema Bragantec.xlsx
+++ b/Requisitos - Sistema Bragantec.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dojo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mayar\Desktop\Coding Dojo\projetoBragantec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34E03AAD-98F4-4C65-BE8A-A6F4B003F52E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B4FE13F-699D-47C5-BA7E-BE2F47E4CD2F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{A547BAE4-6354-4564-949E-A99C7A963430}"/>
   </bookViews>
@@ -165,7 +165,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -175,6 +175,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -206,7 +212,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -214,6 +220,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -532,7 +541,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -557,7 +566,7 @@
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>30</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -601,7 +610,7 @@
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -612,7 +621,7 @@
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="4" t="s">
         <v>32</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -645,7 +654,7 @@
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -667,7 +676,7 @@
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="4" t="s">
         <v>25</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -678,7 +687,7 @@
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="4" t="s">
         <v>26</v>
       </c>
       <c r="C13" s="2" t="s">

--- a/Requisitos - Sistema Bragantec.xlsx
+++ b/Requisitos - Sistema Bragantec.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mayar\Desktop\Coding Dojo\projetoBragantec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B4FE13F-699D-47C5-BA7E-BE2F47E4CD2F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0DE9116-23BC-417C-A6E8-F7488512526D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{A547BAE4-6354-4564-949E-A99C7A963430}"/>
   </bookViews>
   <sheets>
     <sheet name="Requisitos Funcionais" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -142,7 +142,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -160,6 +160,12 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -212,7 +218,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -222,6 +228,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -540,8 +549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5668719B-982A-4198-B237-18ADC062E075}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -577,7 +586,7 @@
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="4" t="s">
         <v>31</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -588,7 +597,7 @@
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -599,7 +608,7 @@
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -632,7 +641,7 @@
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -698,7 +707,7 @@
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C14" s="2" t="s">
